--- a/data/output/FV2404_FV2310/UTILMD/55196.xlsx
+++ b/data/output/FV2404_FV2310/UTILMD/55196.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6593" uniqueCount="446">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6614" uniqueCount="446">
+  <si>
+    <t>Segmentname_FV2310</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2310</t>
+  </si>
+  <si>
+    <t>Segment_FV2310</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2310</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2310</t>
+  </si>
+  <si>
+    <t>Code_FV2310</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2310</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2310</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1509,6 +1509,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U310" totalsRowShown="0">
+  <autoFilter ref="A1:U310"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2310"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2310"/>
+    <tableColumn id="3" name="Segment_FV2310"/>
+    <tableColumn id="4" name="Datenelement_FV2310"/>
+    <tableColumn id="5" name="Segment ID_FV2310"/>
+    <tableColumn id="6" name="Code_FV2310"/>
+    <tableColumn id="7" name="Qualifier_FV2310"/>
+    <tableColumn id="8" name="Beschreibung_FV2310"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2310"/>
+    <tableColumn id="10" name="Bedingung_FV2310"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2404"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="14" name="Segment_FV2404"/>
+    <tableColumn id="15" name="Datenelement_FV2404"/>
+    <tableColumn id="16" name="Segment ID_FV2404"/>
+    <tableColumn id="17" name="Code_FV2404"/>
+    <tableColumn id="18" name="Qualifier_FV2404"/>
+    <tableColumn id="19" name="Beschreibung_FV2404"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="21" name="Bedingung_FV2404"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1798,7 +1828,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U310"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -16173,5 +16206,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2404_FV2310/UTILMD/55196.xlsx
+++ b/data/output/FV2404_FV2310/UTILMD/55196.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8093" uniqueCount="745">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8045" uniqueCount="745">
   <si>
     <t>#</t>
   </si>
@@ -11783,46 +11783,44 @@
       <c r="V176" s="2"/>
     </row>
     <row r="177" spans="1:22">
-      <c r="A177" s="2" t="s">
+      <c r="A177" s="5" t="s">
         <v>613</v>
       </c>
-      <c r="B177" s="2" t="s">
+      <c r="B177" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C177" s="2" t="s">
+      <c r="C177" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D177" s="2"/>
-      <c r="E177" s="2"/>
-      <c r="F177" s="2"/>
-      <c r="G177" s="2"/>
-      <c r="H177" s="2"/>
-      <c r="I177" s="2"/>
-      <c r="J177" s="2" t="s">
+      <c r="D177" s="5"/>
+      <c r="E177" s="5"/>
+      <c r="F177" s="5"/>
+      <c r="G177" s="5"/>
+      <c r="H177" s="5"/>
+      <c r="I177" s="5"/>
+      <c r="J177" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="K177" s="2" t="s">
+      <c r="K177" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="L177" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="M177" s="2" t="s">
+      <c r="L177" s="7"/>
+      <c r="M177" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="N177" s="2" t="s">
+      <c r="N177" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="O177" s="2"/>
-      <c r="P177" s="2"/>
-      <c r="Q177" s="2"/>
-      <c r="R177" s="2"/>
-      <c r="S177" s="2"/>
-      <c r="T177" s="2"/>
-      <c r="U177" s="2" t="s">
+      <c r="O177" s="5"/>
+      <c r="P177" s="5"/>
+      <c r="Q177" s="5"/>
+      <c r="R177" s="5"/>
+      <c r="S177" s="5"/>
+      <c r="T177" s="5"/>
+      <c r="U177" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="V177" s="2" t="s">
+      <c r="V177" s="5" t="s">
         <v>352</v>
       </c>
     </row>
@@ -12093,46 +12091,44 @@
       </c>
     </row>
     <row r="183" spans="1:22">
-      <c r="A183" s="2" t="s">
+      <c r="A183" s="5" t="s">
         <v>619</v>
       </c>
-      <c r="B183" s="2" t="s">
+      <c r="B183" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C183" s="2" t="s">
+      <c r="C183" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D183" s="2"/>
-      <c r="E183" s="2"/>
-      <c r="F183" s="2"/>
-      <c r="G183" s="2"/>
-      <c r="H183" s="2"/>
-      <c r="I183" s="2"/>
-      <c r="J183" s="2" t="s">
+      <c r="D183" s="5"/>
+      <c r="E183" s="5"/>
+      <c r="F183" s="5"/>
+      <c r="G183" s="5"/>
+      <c r="H183" s="5"/>
+      <c r="I183" s="5"/>
+      <c r="J183" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="K183" s="2" t="s">
+      <c r="K183" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="L183" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="M183" s="2" t="s">
+      <c r="L183" s="7"/>
+      <c r="M183" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="N183" s="2" t="s">
+      <c r="N183" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="O183" s="2"/>
-      <c r="P183" s="2"/>
-      <c r="Q183" s="2"/>
-      <c r="R183" s="2"/>
-      <c r="S183" s="2"/>
-      <c r="T183" s="2"/>
-      <c r="U183" s="2" t="s">
+      <c r="O183" s="5"/>
+      <c r="P183" s="5"/>
+      <c r="Q183" s="5"/>
+      <c r="R183" s="5"/>
+      <c r="S183" s="5"/>
+      <c r="T183" s="5"/>
+      <c r="U183" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="V183" s="2" t="s">
+      <c r="V183" s="5" t="s">
         <v>353</v>
       </c>
     </row>
@@ -12357,46 +12353,44 @@
       <c r="V187" s="2"/>
     </row>
     <row r="188" spans="1:22">
-      <c r="A188" s="2" t="s">
+      <c r="A188" s="5" t="s">
         <v>624</v>
       </c>
-      <c r="B188" s="2" t="s">
+      <c r="B188" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C188" s="2" t="s">
+      <c r="C188" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D188" s="2"/>
-      <c r="E188" s="2"/>
-      <c r="F188" s="2"/>
-      <c r="G188" s="2"/>
-      <c r="H188" s="2"/>
-      <c r="I188" s="2"/>
-      <c r="J188" s="2" t="s">
+      <c r="D188" s="5"/>
+      <c r="E188" s="5"/>
+      <c r="F188" s="5"/>
+      <c r="G188" s="5"/>
+      <c r="H188" s="5"/>
+      <c r="I188" s="5"/>
+      <c r="J188" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="K188" s="2" t="s">
+      <c r="K188" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="L188" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="M188" s="2" t="s">
+      <c r="L188" s="7"/>
+      <c r="M188" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="N188" s="2" t="s">
+      <c r="N188" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="O188" s="2"/>
-      <c r="P188" s="2"/>
-      <c r="Q188" s="2"/>
-      <c r="R188" s="2"/>
-      <c r="S188" s="2"/>
-      <c r="T188" s="2"/>
-      <c r="U188" s="2" t="s">
+      <c r="O188" s="5"/>
+      <c r="P188" s="5"/>
+      <c r="Q188" s="5"/>
+      <c r="R188" s="5"/>
+      <c r="S188" s="5"/>
+      <c r="T188" s="5"/>
+      <c r="U188" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="V188" s="2" t="s">
+      <c r="V188" s="5" t="s">
         <v>353</v>
       </c>
     </row>
@@ -12621,46 +12615,44 @@
       <c r="V192" s="2"/>
     </row>
     <row r="193" spans="1:22">
-      <c r="A193" s="2" t="s">
+      <c r="A193" s="5" t="s">
         <v>629</v>
       </c>
-      <c r="B193" s="2" t="s">
+      <c r="B193" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C193" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D193" s="2"/>
-      <c r="E193" s="2"/>
-      <c r="F193" s="2"/>
-      <c r="G193" s="2"/>
-      <c r="H193" s="2"/>
-      <c r="I193" s="2"/>
-      <c r="J193" s="2" t="s">
+      <c r="C193" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D193" s="5"/>
+      <c r="E193" s="5"/>
+      <c r="F193" s="5"/>
+      <c r="G193" s="5"/>
+      <c r="H193" s="5"/>
+      <c r="I193" s="5"/>
+      <c r="J193" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="K193" s="2" t="s">
+      <c r="K193" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="L193" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="M193" s="2" t="s">
+      <c r="L193" s="7"/>
+      <c r="M193" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="N193" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="O193" s="2"/>
-      <c r="P193" s="2"/>
-      <c r="Q193" s="2"/>
-      <c r="R193" s="2"/>
-      <c r="S193" s="2"/>
-      <c r="T193" s="2"/>
-      <c r="U193" s="2" t="s">
+      <c r="N193" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="O193" s="5"/>
+      <c r="P193" s="5"/>
+      <c r="Q193" s="5"/>
+      <c r="R193" s="5"/>
+      <c r="S193" s="5"/>
+      <c r="T193" s="5"/>
+      <c r="U193" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="V193" s="2" t="s">
+      <c r="V193" s="5" t="s">
         <v>353</v>
       </c>
     </row>
@@ -12823,46 +12815,44 @@
       <c r="V196" s="2"/>
     </row>
     <row r="197" spans="1:22">
-      <c r="A197" s="2" t="s">
+      <c r="A197" s="5" t="s">
         <v>633</v>
       </c>
-      <c r="B197" s="2" t="s">
+      <c r="B197" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C197" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D197" s="2"/>
-      <c r="E197" s="2"/>
-      <c r="F197" s="2"/>
-      <c r="G197" s="2"/>
-      <c r="H197" s="2"/>
-      <c r="I197" s="2"/>
-      <c r="J197" s="2" t="s">
+      <c r="C197" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D197" s="5"/>
+      <c r="E197" s="5"/>
+      <c r="F197" s="5"/>
+      <c r="G197" s="5"/>
+      <c r="H197" s="5"/>
+      <c r="I197" s="5"/>
+      <c r="J197" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="K197" s="2" t="s">
+      <c r="K197" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="L197" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="M197" s="2" t="s">
+      <c r="L197" s="7"/>
+      <c r="M197" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="N197" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="O197" s="2"/>
-      <c r="P197" s="2"/>
-      <c r="Q197" s="2"/>
-      <c r="R197" s="2"/>
-      <c r="S197" s="2"/>
-      <c r="T197" s="2"/>
-      <c r="U197" s="2" t="s">
+      <c r="N197" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="O197" s="5"/>
+      <c r="P197" s="5"/>
+      <c r="Q197" s="5"/>
+      <c r="R197" s="5"/>
+      <c r="S197" s="5"/>
+      <c r="T197" s="5"/>
+      <c r="U197" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="V197" s="2" t="s">
+      <c r="V197" s="5" t="s">
         <v>353</v>
       </c>
     </row>
@@ -12999,46 +12989,44 @@
       <c r="V200" s="11"/>
     </row>
     <row r="201" spans="1:22">
-      <c r="A201" s="2" t="s">
+      <c r="A201" s="5" t="s">
         <v>637</v>
       </c>
-      <c r="B201" s="2" t="s">
+      <c r="B201" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C201" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D201" s="2"/>
-      <c r="E201" s="2"/>
-      <c r="F201" s="2"/>
-      <c r="G201" s="2"/>
-      <c r="H201" s="2"/>
-      <c r="I201" s="2"/>
-      <c r="J201" s="2" t="s">
+      <c r="C201" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D201" s="5"/>
+      <c r="E201" s="5"/>
+      <c r="F201" s="5"/>
+      <c r="G201" s="5"/>
+      <c r="H201" s="5"/>
+      <c r="I201" s="5"/>
+      <c r="J201" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="K201" s="2" t="s">
+      <c r="K201" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="L201" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="M201" s="2" t="s">
+      <c r="L201" s="7"/>
+      <c r="M201" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="N201" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="O201" s="2"/>
-      <c r="P201" s="2"/>
-      <c r="Q201" s="2"/>
-      <c r="R201" s="2"/>
-      <c r="S201" s="2"/>
-      <c r="T201" s="2"/>
-      <c r="U201" s="2" t="s">
+      <c r="N201" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="O201" s="5"/>
+      <c r="P201" s="5"/>
+      <c r="Q201" s="5"/>
+      <c r="R201" s="5"/>
+      <c r="S201" s="5"/>
+      <c r="T201" s="5"/>
+      <c r="U201" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="V201" s="2" t="s">
+      <c r="V201" s="5" t="s">
         <v>353</v>
       </c>
     </row>
@@ -13201,46 +13189,44 @@
       <c r="V204" s="2"/>
     </row>
     <row r="205" spans="1:22">
-      <c r="A205" s="2" t="s">
+      <c r="A205" s="5" t="s">
         <v>641</v>
       </c>
-      <c r="B205" s="2" t="s">
+      <c r="B205" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C205" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D205" s="2"/>
-      <c r="E205" s="2"/>
-      <c r="F205" s="2"/>
-      <c r="G205" s="2"/>
-      <c r="H205" s="2"/>
-      <c r="I205" s="2"/>
-      <c r="J205" s="2" t="s">
+      <c r="C205" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D205" s="5"/>
+      <c r="E205" s="5"/>
+      <c r="F205" s="5"/>
+      <c r="G205" s="5"/>
+      <c r="H205" s="5"/>
+      <c r="I205" s="5"/>
+      <c r="J205" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="K205" s="2" t="s">
+      <c r="K205" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="L205" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="M205" s="2" t="s">
+      <c r="L205" s="7"/>
+      <c r="M205" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="N205" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="O205" s="2"/>
-      <c r="P205" s="2"/>
-      <c r="Q205" s="2"/>
-      <c r="R205" s="2"/>
-      <c r="S205" s="2"/>
-      <c r="T205" s="2"/>
-      <c r="U205" s="2" t="s">
+      <c r="N205" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="O205" s="5"/>
+      <c r="P205" s="5"/>
+      <c r="Q205" s="5"/>
+      <c r="R205" s="5"/>
+      <c r="S205" s="5"/>
+      <c r="T205" s="5"/>
+      <c r="U205" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="V205" s="2" t="s">
+      <c r="V205" s="5" t="s">
         <v>353</v>
       </c>
     </row>
@@ -13507,46 +13493,44 @@
       <c r="V210" s="2"/>
     </row>
     <row r="211" spans="1:22">
-      <c r="A211" s="2" t="s">
+      <c r="A211" s="5" t="s">
         <v>647</v>
       </c>
-      <c r="B211" s="2" t="s">
+      <c r="B211" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C211" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D211" s="2"/>
-      <c r="E211" s="2"/>
-      <c r="F211" s="2"/>
-      <c r="G211" s="2"/>
-      <c r="H211" s="2"/>
-      <c r="I211" s="2"/>
-      <c r="J211" s="2" t="s">
+      <c r="C211" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D211" s="5"/>
+      <c r="E211" s="5"/>
+      <c r="F211" s="5"/>
+      <c r="G211" s="5"/>
+      <c r="H211" s="5"/>
+      <c r="I211" s="5"/>
+      <c r="J211" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="K211" s="2" t="s">
+      <c r="K211" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="L211" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="M211" s="2" t="s">
+      <c r="L211" s="7"/>
+      <c r="M211" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="N211" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="O211" s="2"/>
-      <c r="P211" s="2"/>
-      <c r="Q211" s="2"/>
-      <c r="R211" s="2"/>
-      <c r="S211" s="2"/>
-      <c r="T211" s="2"/>
-      <c r="U211" s="2" t="s">
+      <c r="N211" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="O211" s="5"/>
+      <c r="P211" s="5"/>
+      <c r="Q211" s="5"/>
+      <c r="R211" s="5"/>
+      <c r="S211" s="5"/>
+      <c r="T211" s="5"/>
+      <c r="U211" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="V211" s="2" t="s">
+      <c r="V211" s="5" t="s">
         <v>353</v>
       </c>
     </row>
@@ -13740,9 +13724,7 @@
         <v>286</v>
       </c>
       <c r="K215" s="2"/>
-      <c r="L215" s="4" t="s">
-        <v>361</v>
-      </c>
+      <c r="L215" s="7"/>
       <c r="M215" s="2" t="s">
         <v>58</v>
       </c>
@@ -13769,46 +13751,44 @@
       <c r="V215" s="2"/>
     </row>
     <row r="216" spans="1:22">
-      <c r="A216" s="2" t="s">
+      <c r="A216" s="5" t="s">
         <v>652</v>
       </c>
-      <c r="B216" s="2" t="s">
+      <c r="B216" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C216" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D216" s="2"/>
-      <c r="E216" s="2"/>
-      <c r="F216" s="2"/>
-      <c r="G216" s="2"/>
-      <c r="H216" s="2"/>
-      <c r="I216" s="2"/>
-      <c r="J216" s="2" t="s">
+      <c r="C216" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D216" s="5"/>
+      <c r="E216" s="5"/>
+      <c r="F216" s="5"/>
+      <c r="G216" s="5"/>
+      <c r="H216" s="5"/>
+      <c r="I216" s="5"/>
+      <c r="J216" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="K216" s="2" t="s">
+      <c r="K216" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="L216" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="M216" s="2" t="s">
+      <c r="L216" s="7"/>
+      <c r="M216" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="N216" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="O216" s="2"/>
-      <c r="P216" s="2"/>
-      <c r="Q216" s="2"/>
-      <c r="R216" s="2"/>
-      <c r="S216" s="2"/>
-      <c r="T216" s="2"/>
-      <c r="U216" s="2" t="s">
+      <c r="N216" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="O216" s="5"/>
+      <c r="P216" s="5"/>
+      <c r="Q216" s="5"/>
+      <c r="R216" s="5"/>
+      <c r="S216" s="5"/>
+      <c r="T216" s="5"/>
+      <c r="U216" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="V216" s="2" t="s">
+      <c r="V216" s="5" t="s">
         <v>353</v>
       </c>
     </row>
@@ -13944,9 +13924,7 @@
         <v>286</v>
       </c>
       <c r="K219" s="2"/>
-      <c r="L219" s="4" t="s">
-        <v>361</v>
-      </c>
+      <c r="L219" s="7"/>
       <c r="M219" s="2" t="s">
         <v>59</v>
       </c>
@@ -14279,46 +14257,44 @@
       <c r="V226" s="2"/>
     </row>
     <row r="227" spans="1:22">
-      <c r="A227" s="2" t="s">
+      <c r="A227" s="5" t="s">
         <v>663</v>
       </c>
-      <c r="B227" s="2" t="s">
+      <c r="B227" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C227" s="2" t="s">
+      <c r="C227" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D227" s="2"/>
-      <c r="E227" s="2"/>
-      <c r="F227" s="2"/>
-      <c r="G227" s="2"/>
-      <c r="H227" s="2"/>
-      <c r="I227" s="2"/>
-      <c r="J227" s="2" t="s">
+      <c r="D227" s="5"/>
+      <c r="E227" s="5"/>
+      <c r="F227" s="5"/>
+      <c r="G227" s="5"/>
+      <c r="H227" s="5"/>
+      <c r="I227" s="5"/>
+      <c r="J227" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="K227" s="2" t="s">
+      <c r="K227" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="L227" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="M227" s="2" t="s">
+      <c r="L227" s="7"/>
+      <c r="M227" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="N227" s="2" t="s">
+      <c r="N227" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="O227" s="2"/>
-      <c r="P227" s="2"/>
-      <c r="Q227" s="2"/>
-      <c r="R227" s="2"/>
-      <c r="S227" s="2"/>
-      <c r="T227" s="2"/>
-      <c r="U227" s="2" t="s">
+      <c r="O227" s="5"/>
+      <c r="P227" s="5"/>
+      <c r="Q227" s="5"/>
+      <c r="R227" s="5"/>
+      <c r="S227" s="5"/>
+      <c r="T227" s="5"/>
+      <c r="U227" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="V227" s="2" t="s">
+      <c r="V227" s="5" t="s">
         <v>354</v>
       </c>
     </row>
@@ -14809,46 +14785,44 @@
       <c r="V236" s="2"/>
     </row>
     <row r="237" spans="1:22">
-      <c r="A237" s="2" t="s">
+      <c r="A237" s="5" t="s">
         <v>673</v>
       </c>
-      <c r="B237" s="2" t="s">
+      <c r="B237" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C237" s="2" t="s">
+      <c r="C237" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D237" s="2"/>
-      <c r="E237" s="2"/>
-      <c r="F237" s="2"/>
-      <c r="G237" s="2"/>
-      <c r="H237" s="2"/>
-      <c r="I237" s="2"/>
-      <c r="J237" s="2" t="s">
+      <c r="D237" s="5"/>
+      <c r="E237" s="5"/>
+      <c r="F237" s="5"/>
+      <c r="G237" s="5"/>
+      <c r="H237" s="5"/>
+      <c r="I237" s="5"/>
+      <c r="J237" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="K237" s="2" t="s">
+      <c r="K237" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="L237" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="M237" s="2" t="s">
+      <c r="L237" s="7"/>
+      <c r="M237" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="N237" s="2" t="s">
+      <c r="N237" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="O237" s="2"/>
-      <c r="P237" s="2"/>
-      <c r="Q237" s="2"/>
-      <c r="R237" s="2"/>
-      <c r="S237" s="2"/>
-      <c r="T237" s="2"/>
-      <c r="U237" s="2" t="s">
+      <c r="O237" s="5"/>
+      <c r="P237" s="5"/>
+      <c r="Q237" s="5"/>
+      <c r="R237" s="5"/>
+      <c r="S237" s="5"/>
+      <c r="T237" s="5"/>
+      <c r="U237" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="V237" s="2" t="s">
+      <c r="V237" s="5" t="s">
         <v>353</v>
       </c>
     </row>
@@ -15173,46 +15147,44 @@
       <c r="V243" s="2"/>
     </row>
     <row r="244" spans="1:22">
-      <c r="A244" s="2" t="s">
+      <c r="A244" s="5" t="s">
         <v>680</v>
       </c>
-      <c r="B244" s="2" t="s">
+      <c r="B244" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C244" s="2" t="s">
+      <c r="C244" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D244" s="2"/>
-      <c r="E244" s="2"/>
-      <c r="F244" s="2"/>
-      <c r="G244" s="2"/>
-      <c r="H244" s="2"/>
-      <c r="I244" s="2"/>
-      <c r="J244" s="2" t="s">
+      <c r="D244" s="5"/>
+      <c r="E244" s="5"/>
+      <c r="F244" s="5"/>
+      <c r="G244" s="5"/>
+      <c r="H244" s="5"/>
+      <c r="I244" s="5"/>
+      <c r="J244" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="K244" s="2" t="s">
+      <c r="K244" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="L244" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="M244" s="2" t="s">
+      <c r="L244" s="7"/>
+      <c r="M244" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="N244" s="2" t="s">
+      <c r="N244" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="O244" s="2"/>
-      <c r="P244" s="2"/>
-      <c r="Q244" s="2"/>
-      <c r="R244" s="2"/>
-      <c r="S244" s="2"/>
-      <c r="T244" s="2"/>
-      <c r="U244" s="2" t="s">
+      <c r="O244" s="5"/>
+      <c r="P244" s="5"/>
+      <c r="Q244" s="5"/>
+      <c r="R244" s="5"/>
+      <c r="S244" s="5"/>
+      <c r="T244" s="5"/>
+      <c r="U244" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="V244" s="2" t="s">
+      <c r="V244" s="5" t="s">
         <v>356</v>
       </c>
     </row>
@@ -15483,44 +15455,42 @@
       </c>
     </row>
     <row r="250" spans="1:22">
-      <c r="A250" s="2" t="s">
+      <c r="A250" s="5" t="s">
         <v>686</v>
       </c>
-      <c r="B250" s="2" t="s">
+      <c r="B250" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C250" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D250" s="2"/>
-      <c r="E250" s="2"/>
-      <c r="F250" s="2"/>
-      <c r="G250" s="2"/>
-      <c r="H250" s="2"/>
-      <c r="I250" s="2"/>
-      <c r="J250" s="2" t="s">
+      <c r="C250" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D250" s="5"/>
+      <c r="E250" s="5"/>
+      <c r="F250" s="5"/>
+      <c r="G250" s="5"/>
+      <c r="H250" s="5"/>
+      <c r="I250" s="5"/>
+      <c r="J250" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="K250" s="2"/>
-      <c r="L250" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="M250" s="2" t="s">
+      <c r="K250" s="5"/>
+      <c r="L250" s="7"/>
+      <c r="M250" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="N250" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="O250" s="2"/>
-      <c r="P250" s="2"/>
-      <c r="Q250" s="2"/>
-      <c r="R250" s="2"/>
-      <c r="S250" s="2"/>
-      <c r="T250" s="2"/>
-      <c r="U250" s="2" t="s">
+      <c r="N250" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="O250" s="5"/>
+      <c r="P250" s="5"/>
+      <c r="Q250" s="5"/>
+      <c r="R250" s="5"/>
+      <c r="S250" s="5"/>
+      <c r="T250" s="5"/>
+      <c r="U250" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="V250" s="2"/>
+      <c r="V250" s="5"/>
     </row>
     <row r="251" spans="1:22">
       <c r="A251" s="2" t="s">
@@ -15785,46 +15755,44 @@
       <c r="V255" s="2"/>
     </row>
     <row r="256" spans="1:22">
-      <c r="A256" s="2" t="s">
+      <c r="A256" s="5" t="s">
         <v>692</v>
       </c>
-      <c r="B256" s="2" t="s">
+      <c r="B256" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C256" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D256" s="2"/>
-      <c r="E256" s="2"/>
-      <c r="F256" s="2"/>
-      <c r="G256" s="2"/>
-      <c r="H256" s="2"/>
-      <c r="I256" s="2"/>
-      <c r="J256" s="2" t="s">
+      <c r="C256" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D256" s="5"/>
+      <c r="E256" s="5"/>
+      <c r="F256" s="5"/>
+      <c r="G256" s="5"/>
+      <c r="H256" s="5"/>
+      <c r="I256" s="5"/>
+      <c r="J256" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="K256" s="2" t="s">
+      <c r="K256" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="L256" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="M256" s="2" t="s">
+      <c r="L256" s="7"/>
+      <c r="M256" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="N256" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="O256" s="2"/>
-      <c r="P256" s="2"/>
-      <c r="Q256" s="2"/>
-      <c r="R256" s="2"/>
-      <c r="S256" s="2"/>
-      <c r="T256" s="2"/>
-      <c r="U256" s="2" t="s">
+      <c r="N256" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="O256" s="5"/>
+      <c r="P256" s="5"/>
+      <c r="Q256" s="5"/>
+      <c r="R256" s="5"/>
+      <c r="S256" s="5"/>
+      <c r="T256" s="5"/>
+      <c r="U256" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="V256" s="2" t="s">
+      <c r="V256" s="5" t="s">
         <v>357</v>
       </c>
     </row>
@@ -15987,46 +15955,44 @@
       <c r="V259" s="2"/>
     </row>
     <row r="260" spans="1:22">
-      <c r="A260" s="2" t="s">
+      <c r="A260" s="5" t="s">
         <v>696</v>
       </c>
-      <c r="B260" s="2" t="s">
+      <c r="B260" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C260" s="2" t="s">
+      <c r="C260" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D260" s="2"/>
-      <c r="E260" s="2"/>
-      <c r="F260" s="2"/>
-      <c r="G260" s="2"/>
-      <c r="H260" s="2"/>
-      <c r="I260" s="2"/>
-      <c r="J260" s="2" t="s">
+      <c r="D260" s="5"/>
+      <c r="E260" s="5"/>
+      <c r="F260" s="5"/>
+      <c r="G260" s="5"/>
+      <c r="H260" s="5"/>
+      <c r="I260" s="5"/>
+      <c r="J260" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="K260" s="2" t="s">
+      <c r="K260" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="L260" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="M260" s="2" t="s">
+      <c r="L260" s="7"/>
+      <c r="M260" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="N260" s="2" t="s">
+      <c r="N260" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="O260" s="2"/>
-      <c r="P260" s="2"/>
-      <c r="Q260" s="2"/>
-      <c r="R260" s="2"/>
-      <c r="S260" s="2"/>
-      <c r="T260" s="2"/>
-      <c r="U260" s="2" t="s">
+      <c r="O260" s="5"/>
+      <c r="P260" s="5"/>
+      <c r="Q260" s="5"/>
+      <c r="R260" s="5"/>
+      <c r="S260" s="5"/>
+      <c r="T260" s="5"/>
+      <c r="U260" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="V260" s="2" t="s">
+      <c r="V260" s="5" t="s">
         <v>353</v>
       </c>
     </row>
@@ -16135,44 +16101,42 @@
       <c r="V262" s="2"/>
     </row>
     <row r="263" spans="1:22">
-      <c r="A263" s="2" t="s">
+      <c r="A263" s="5" t="s">
         <v>699</v>
       </c>
-      <c r="B263" s="2" t="s">
+      <c r="B263" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C263" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D263" s="2"/>
-      <c r="E263" s="2"/>
-      <c r="F263" s="2"/>
-      <c r="G263" s="2"/>
-      <c r="H263" s="2"/>
-      <c r="I263" s="2"/>
-      <c r="J263" s="2" t="s">
+      <c r="C263" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D263" s="5"/>
+      <c r="E263" s="5"/>
+      <c r="F263" s="5"/>
+      <c r="G263" s="5"/>
+      <c r="H263" s="5"/>
+      <c r="I263" s="5"/>
+      <c r="J263" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="K263" s="2"/>
-      <c r="L263" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="M263" s="2" t="s">
+      <c r="K263" s="5"/>
+      <c r="L263" s="7"/>
+      <c r="M263" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="N263" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="O263" s="2"/>
-      <c r="P263" s="2"/>
-      <c r="Q263" s="2"/>
-      <c r="R263" s="2"/>
-      <c r="S263" s="2"/>
-      <c r="T263" s="2"/>
-      <c r="U263" s="2" t="s">
+      <c r="N263" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="O263" s="5"/>
+      <c r="P263" s="5"/>
+      <c r="Q263" s="5"/>
+      <c r="R263" s="5"/>
+      <c r="S263" s="5"/>
+      <c r="T263" s="5"/>
+      <c r="U263" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="V263" s="2"/>
+      <c r="V263" s="5"/>
     </row>
     <row r="264" spans="1:22">
       <c r="A264" s="2" t="s">
@@ -16333,46 +16297,44 @@
       <c r="V266" s="2"/>
     </row>
     <row r="267" spans="1:22">
-      <c r="A267" s="2" t="s">
+      <c r="A267" s="5" t="s">
         <v>703</v>
       </c>
-      <c r="B267" s="2" t="s">
+      <c r="B267" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C267" s="2" t="s">
+      <c r="C267" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D267" s="2"/>
-      <c r="E267" s="2"/>
-      <c r="F267" s="2"/>
-      <c r="G267" s="2"/>
-      <c r="H267" s="2"/>
-      <c r="I267" s="2"/>
-      <c r="J267" s="2" t="s">
+      <c r="D267" s="5"/>
+      <c r="E267" s="5"/>
+      <c r="F267" s="5"/>
+      <c r="G267" s="5"/>
+      <c r="H267" s="5"/>
+      <c r="I267" s="5"/>
+      <c r="J267" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="K267" s="2" t="s">
+      <c r="K267" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="L267" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="M267" s="2" t="s">
+      <c r="L267" s="7"/>
+      <c r="M267" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="N267" s="2" t="s">
+      <c r="N267" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="O267" s="2"/>
-      <c r="P267" s="2"/>
-      <c r="Q267" s="2"/>
-      <c r="R267" s="2"/>
-      <c r="S267" s="2"/>
-      <c r="T267" s="2"/>
-      <c r="U267" s="2" t="s">
+      <c r="O267" s="5"/>
+      <c r="P267" s="5"/>
+      <c r="Q267" s="5"/>
+      <c r="R267" s="5"/>
+      <c r="S267" s="5"/>
+      <c r="T267" s="5"/>
+      <c r="U267" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="V267" s="2" t="s">
+      <c r="V267" s="5" t="s">
         <v>358</v>
       </c>
     </row>
@@ -16863,46 +16825,44 @@
       <c r="V276" s="2"/>
     </row>
     <row r="277" spans="1:22">
-      <c r="A277" s="2" t="s">
+      <c r="A277" s="5" t="s">
         <v>713</v>
       </c>
-      <c r="B277" s="2" t="s">
+      <c r="B277" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C277" s="2" t="s">
+      <c r="C277" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D277" s="2"/>
-      <c r="E277" s="2"/>
-      <c r="F277" s="2"/>
-      <c r="G277" s="2"/>
-      <c r="H277" s="2"/>
-      <c r="I277" s="2"/>
-      <c r="J277" s="2" t="s">
+      <c r="D277" s="5"/>
+      <c r="E277" s="5"/>
+      <c r="F277" s="5"/>
+      <c r="G277" s="5"/>
+      <c r="H277" s="5"/>
+      <c r="I277" s="5"/>
+      <c r="J277" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="K277" s="2" t="s">
+      <c r="K277" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="L277" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="M277" s="2" t="s">
+      <c r="L277" s="7"/>
+      <c r="M277" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="N277" s="2" t="s">
+      <c r="N277" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="O277" s="2"/>
-      <c r="P277" s="2"/>
-      <c r="Q277" s="2"/>
-      <c r="R277" s="2"/>
-      <c r="S277" s="2"/>
-      <c r="T277" s="2"/>
-      <c r="U277" s="2" t="s">
+      <c r="O277" s="5"/>
+      <c r="P277" s="5"/>
+      <c r="Q277" s="5"/>
+      <c r="R277" s="5"/>
+      <c r="S277" s="5"/>
+      <c r="T277" s="5"/>
+      <c r="U277" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="V277" s="2" t="s">
+      <c r="V277" s="5" t="s">
         <v>353</v>
       </c>
     </row>
@@ -17231,46 +17191,44 @@
       <c r="V283" s="2"/>
     </row>
     <row r="284" spans="1:22">
-      <c r="A284" s="2" t="s">
+      <c r="A284" s="5" t="s">
         <v>720</v>
       </c>
-      <c r="B284" s="2" t="s">
+      <c r="B284" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C284" s="2" t="s">
+      <c r="C284" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D284" s="2"/>
-      <c r="E284" s="2"/>
-      <c r="F284" s="2"/>
-      <c r="G284" s="2"/>
-      <c r="H284" s="2"/>
-      <c r="I284" s="2"/>
-      <c r="J284" s="2" t="s">
+      <c r="D284" s="5"/>
+      <c r="E284" s="5"/>
+      <c r="F284" s="5"/>
+      <c r="G284" s="5"/>
+      <c r="H284" s="5"/>
+      <c r="I284" s="5"/>
+      <c r="J284" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="K284" s="2" t="s">
+      <c r="K284" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="L284" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="M284" s="2" t="s">
+      <c r="L284" s="7"/>
+      <c r="M284" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="N284" s="2" t="s">
+      <c r="N284" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="O284" s="2"/>
-      <c r="P284" s="2"/>
-      <c r="Q284" s="2"/>
-      <c r="R284" s="2"/>
-      <c r="S284" s="2"/>
-      <c r="T284" s="2"/>
-      <c r="U284" s="2" t="s">
+      <c r="O284" s="5"/>
+      <c r="P284" s="5"/>
+      <c r="Q284" s="5"/>
+      <c r="R284" s="5"/>
+      <c r="S284" s="5"/>
+      <c r="T284" s="5"/>
+      <c r="U284" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="V284" s="2" t="s">
+      <c r="V284" s="5" t="s">
         <v>360</v>
       </c>
     </row>
@@ -17699,44 +17657,42 @@
       </c>
     </row>
     <row r="293" spans="1:22">
-      <c r="A293" s="2" t="s">
+      <c r="A293" s="5" t="s">
         <v>729</v>
       </c>
-      <c r="B293" s="2" t="s">
+      <c r="B293" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C293" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D293" s="2"/>
-      <c r="E293" s="2"/>
-      <c r="F293" s="2"/>
-      <c r="G293" s="2"/>
-      <c r="H293" s="2"/>
-      <c r="I293" s="2"/>
-      <c r="J293" s="2" t="s">
+      <c r="C293" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D293" s="5"/>
+      <c r="E293" s="5"/>
+      <c r="F293" s="5"/>
+      <c r="G293" s="5"/>
+      <c r="H293" s="5"/>
+      <c r="I293" s="5"/>
+      <c r="J293" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="K293" s="2"/>
-      <c r="L293" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="M293" s="2" t="s">
+      <c r="K293" s="5"/>
+      <c r="L293" s="7"/>
+      <c r="M293" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="N293" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="O293" s="2"/>
-      <c r="P293" s="2"/>
-      <c r="Q293" s="2"/>
-      <c r="R293" s="2"/>
-      <c r="S293" s="2"/>
-      <c r="T293" s="2"/>
-      <c r="U293" s="2" t="s">
+      <c r="N293" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="O293" s="5"/>
+      <c r="P293" s="5"/>
+      <c r="Q293" s="5"/>
+      <c r="R293" s="5"/>
+      <c r="S293" s="5"/>
+      <c r="T293" s="5"/>
+      <c r="U293" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="V293" s="2"/>
+      <c r="V293" s="5"/>
     </row>
     <row r="294" spans="1:22">
       <c r="A294" s="2" t="s">
@@ -18001,46 +17957,44 @@
       <c r="V298" s="2"/>
     </row>
     <row r="299" spans="1:22">
-      <c r="A299" s="2" t="s">
+      <c r="A299" s="5" t="s">
         <v>734</v>
       </c>
-      <c r="B299" s="2" t="s">
+      <c r="B299" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C299" s="2" t="s">
+      <c r="C299" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D299" s="2"/>
-      <c r="E299" s="2"/>
-      <c r="F299" s="2"/>
-      <c r="G299" s="2"/>
-      <c r="H299" s="2"/>
-      <c r="I299" s="2"/>
-      <c r="J299" s="2" t="s">
+      <c r="D299" s="5"/>
+      <c r="E299" s="5"/>
+      <c r="F299" s="5"/>
+      <c r="G299" s="5"/>
+      <c r="H299" s="5"/>
+      <c r="I299" s="5"/>
+      <c r="J299" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="K299" s="2" t="s">
+      <c r="K299" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="L299" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="M299" s="2" t="s">
+      <c r="L299" s="7"/>
+      <c r="M299" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="N299" s="2" t="s">
+      <c r="N299" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="O299" s="2"/>
-      <c r="P299" s="2"/>
-      <c r="Q299" s="2"/>
-      <c r="R299" s="2"/>
-      <c r="S299" s="2"/>
-      <c r="T299" s="2"/>
-      <c r="U299" s="2" t="s">
+      <c r="O299" s="5"/>
+      <c r="P299" s="5"/>
+      <c r="Q299" s="5"/>
+      <c r="R299" s="5"/>
+      <c r="S299" s="5"/>
+      <c r="T299" s="5"/>
+      <c r="U299" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="V299" s="2" t="s">
+      <c r="V299" s="5" t="s">
         <v>353</v>
       </c>
     </row>
@@ -18149,44 +18103,42 @@
       <c r="V301" s="2"/>
     </row>
     <row r="302" spans="1:22">
-      <c r="A302" s="2" t="s">
+      <c r="A302" s="5" t="s">
         <v>737</v>
       </c>
-      <c r="B302" s="2" t="s">
+      <c r="B302" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C302" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D302" s="2"/>
-      <c r="E302" s="2"/>
-      <c r="F302" s="2"/>
-      <c r="G302" s="2"/>
-      <c r="H302" s="2"/>
-      <c r="I302" s="2"/>
-      <c r="J302" s="2" t="s">
+      <c r="C302" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D302" s="5"/>
+      <c r="E302" s="5"/>
+      <c r="F302" s="5"/>
+      <c r="G302" s="5"/>
+      <c r="H302" s="5"/>
+      <c r="I302" s="5"/>
+      <c r="J302" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="K302" s="2"/>
-      <c r="L302" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="M302" s="2" t="s">
+      <c r="K302" s="5"/>
+      <c r="L302" s="7"/>
+      <c r="M302" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="N302" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="O302" s="2"/>
-      <c r="P302" s="2"/>
-      <c r="Q302" s="2"/>
-      <c r="R302" s="2"/>
-      <c r="S302" s="2"/>
-      <c r="T302" s="2"/>
-      <c r="U302" s="2" t="s">
+      <c r="N302" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="O302" s="5"/>
+      <c r="P302" s="5"/>
+      <c r="Q302" s="5"/>
+      <c r="R302" s="5"/>
+      <c r="S302" s="5"/>
+      <c r="T302" s="5"/>
+      <c r="U302" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="V302" s="2"/>
+      <c r="V302" s="5"/>
     </row>
     <row r="303" spans="1:22">
       <c r="A303" s="2" t="s">
